--- a/libs/accounts/src/test/example_xlsx/Account-Inventory.xlsx
+++ b/libs/accounts/src/test/example_xlsx/Account-Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aultac/repos/aultfarms/af-monorepo/libs/accounts/src/test/example_xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD72FF1-CBAA-294E-AB34-50700203D4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1267E5-066F-F845-8034-DEFA13BB039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="740" windowWidth="38400" windowHeight="20000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inventory-crop-prepay-seed" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="inventory-cattle" sheetId="4" r:id="rId3"/>
     <sheet name="inventory-borrowingbase" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
   <si>
     <t>date</t>
   </si>
@@ -330,6 +330,9 @@
   <si>
     <t>transfer-from:bank.checking,to:inventory.crop.prepay.fertco</t>
   </si>
+  <si>
+    <t>internal</t>
+  </si>
 </sst>
 </file>
 
@@ -343,7 +346,7 @@
     <numFmt numFmtId="168" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);[Red]\-#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +400,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -443,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +513,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4938,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -9404,8 +9414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z962"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9506,6 +9516,9 @@
         <f>E4+C5</f>
         <v>2100000</v>
       </c>
+      <c r="F5" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
@@ -9532,6 +9545,9 @@
         <f t="shared" ref="E6:E8" si="0">C6+E5</f>
         <v>1980000</v>
       </c>
+      <c r="F6" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
@@ -9559,7 +9575,9 @@
         <f t="shared" si="0"/>
         <v>1980000</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
@@ -9603,7 +9621,9 @@
         <f t="shared" si="0"/>
         <v>1900000</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>32</v>
       </c>
